--- a/Luban/ExcelConfig/Datas/localization.xlsx
+++ b/Luban/ExcelConfig/Datas/localization.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17680"/>
+    <workbookView windowWidth="27945" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -27,14 +27,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="149">
   <si>
     <t>##var</t>
   </si>
   <si>
-    <t>id</t>
-  </si>
-  <si>
     <t>alias</t>
   </si>
   <si>
@@ -57,9 +54,6 @@
   </si>
   <si>
     <t>##type</t>
-  </si>
-  <si>
-    <t>int</t>
   </si>
   <si>
     <t>string</t>
@@ -1101,15 +1095,9 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1433,845 +1421,828 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:BN8"/>
+  <dimension ref="A1:BM8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" topLeftCell="D1" activePane="topRight" state="frozen"/>
+      <pane xSplit="2" topLeftCell="AD1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="A1" sqref="$A1:$XFD1048576"/>
+      <selection pane="topRight" activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7"/>
   <cols>
     <col min="1" max="1" width="8.58333333333333" customWidth="1"/>
-    <col min="2" max="2" width="6.41666666666667" style="2" customWidth="1"/>
-    <col min="3" max="3" width="6.16666666666667" customWidth="1"/>
-    <col min="4" max="4" width="5.08333333333333" customWidth="1"/>
-    <col min="5" max="5" width="10.0833333333333" customWidth="1"/>
-    <col min="6" max="6" width="12.5" customWidth="1"/>
-    <col min="7" max="7" width="11.4166666666667" customWidth="1"/>
-    <col min="8" max="8" width="12.5833333333333" customWidth="1"/>
-    <col min="9" max="9" width="13.3333333333333" customWidth="1"/>
-    <col min="10" max="10" width="12.25" customWidth="1"/>
-    <col min="11" max="11" width="11.9166666666667" customWidth="1"/>
-    <col min="12" max="12" width="11" customWidth="1"/>
-    <col min="13" max="13" width="10.6666666666667" customWidth="1"/>
-    <col min="14" max="14" width="11.75" customWidth="1"/>
-    <col min="15" max="15" width="19.8333333333333" customWidth="1"/>
-    <col min="16" max="16" width="28.25" customWidth="1"/>
-    <col min="17" max="17" width="26.25" customWidth="1"/>
-    <col min="18" max="19" width="28.25" customWidth="1"/>
-    <col min="20" max="20" width="24.5" customWidth="1"/>
-    <col min="21" max="21" width="29.1666666666667" customWidth="1"/>
-    <col min="22" max="23" width="8.75" customWidth="1"/>
-    <col min="24" max="24" width="9.5" customWidth="1"/>
-    <col min="25" max="25" width="8.75" customWidth="1"/>
-    <col min="26" max="27" width="10.6666666666667" customWidth="1"/>
-    <col min="28" max="29" width="8.75" customWidth="1"/>
-    <col min="30" max="30" width="10.0833333333333" customWidth="1"/>
-    <col min="31" max="31" width="12.75" customWidth="1"/>
-    <col min="32" max="32" width="12.4166666666667" customWidth="1"/>
-    <col min="33" max="33" width="11.3333333333333" customWidth="1"/>
-    <col min="34" max="37" width="10.6666666666667" customWidth="1"/>
-    <col min="38" max="38" width="9" customWidth="1"/>
-    <col min="39" max="39" width="16.0833333333333" customWidth="1"/>
-    <col min="40" max="40" width="16.1666666666667" customWidth="1"/>
-    <col min="41" max="41" width="14.0833333333333" customWidth="1"/>
-    <col min="42" max="42" width="5.08333333333333" customWidth="1"/>
-    <col min="43" max="43" width="9.83333333333333" customWidth="1"/>
-    <col min="44" max="44" width="9.5" customWidth="1"/>
-    <col min="45" max="45" width="8.66666666666667" customWidth="1"/>
-    <col min="46" max="46" width="8.08333333333333" customWidth="1"/>
-    <col min="47" max="48" width="10.9166666666667" customWidth="1"/>
-    <col min="49" max="49" width="11.4166666666667" customWidth="1"/>
-    <col min="50" max="50" width="15.9166666666667" customWidth="1"/>
-    <col min="51" max="51" width="13.8333333333333" customWidth="1"/>
-    <col min="52" max="52" width="15.8333333333333" customWidth="1"/>
-    <col min="53" max="53" width="11.0833333333333" customWidth="1"/>
-    <col min="54" max="57" width="5.08333333333333" customWidth="1"/>
-    <col min="58" max="58" width="9.83333333333333" customWidth="1"/>
-    <col min="59" max="59" width="8.75" customWidth="1"/>
-    <col min="60" max="60" width="11.3333333333333" customWidth="1"/>
-    <col min="61" max="61" width="9.83333333333333" customWidth="1"/>
-    <col min="62" max="62" width="9.25" customWidth="1"/>
-    <col min="63" max="63" width="11.8333333333333" customWidth="1"/>
-    <col min="64" max="64" width="9.41666666666667" customWidth="1"/>
-    <col min="65" max="65" width="13.5833333333333" customWidth="1"/>
-    <col min="66" max="66" width="6.66666666666667" customWidth="1"/>
+    <col min="2" max="2" width="6.16666666666667" customWidth="1"/>
+    <col min="3" max="3" width="5.08333333333333" customWidth="1"/>
+    <col min="4" max="4" width="10.0833333333333" customWidth="1"/>
+    <col min="5" max="5" width="12.5" customWidth="1"/>
+    <col min="6" max="6" width="11.4166666666667" customWidth="1"/>
+    <col min="7" max="7" width="12.5833333333333" customWidth="1"/>
+    <col min="8" max="8" width="13.3333333333333" customWidth="1"/>
+    <col min="9" max="9" width="12.25" customWidth="1"/>
+    <col min="10" max="10" width="11.9166666666667" customWidth="1"/>
+    <col min="11" max="11" width="11" customWidth="1"/>
+    <col min="12" max="12" width="10.6666666666667" customWidth="1"/>
+    <col min="13" max="13" width="11.75" customWidth="1"/>
+    <col min="14" max="14" width="19.8333333333333" customWidth="1"/>
+    <col min="15" max="15" width="28.25" customWidth="1"/>
+    <col min="16" max="16" width="26.25" customWidth="1"/>
+    <col min="17" max="18" width="28.25" customWidth="1"/>
+    <col min="19" max="19" width="24.5" customWidth="1"/>
+    <col min="20" max="20" width="29.1666666666667" customWidth="1"/>
+    <col min="21" max="22" width="8.75" customWidth="1"/>
+    <col min="23" max="23" width="9.5" customWidth="1"/>
+    <col min="24" max="24" width="8.75" customWidth="1"/>
+    <col min="25" max="26" width="10.6666666666667" customWidth="1"/>
+    <col min="27" max="28" width="8.75" customWidth="1"/>
+    <col min="29" max="29" width="10.0833333333333" customWidth="1"/>
+    <col min="30" max="30" width="12.75" customWidth="1"/>
+    <col min="31" max="31" width="12.4166666666667" customWidth="1"/>
+    <col min="32" max="32" width="11.3333333333333" customWidth="1"/>
+    <col min="33" max="36" width="10.6666666666667" customWidth="1"/>
+    <col min="37" max="37" width="9" customWidth="1"/>
+    <col min="38" max="38" width="16.0833333333333" customWidth="1"/>
+    <col min="39" max="39" width="16.1666666666667" customWidth="1"/>
+    <col min="40" max="40" width="14.0833333333333" customWidth="1"/>
+    <col min="41" max="41" width="5.08333333333333" customWidth="1"/>
+    <col min="42" max="42" width="9.83333333333333" customWidth="1"/>
+    <col min="43" max="43" width="9.5" customWidth="1"/>
+    <col min="44" max="44" width="8.66666666666667" customWidth="1"/>
+    <col min="45" max="45" width="8.08333333333333" customWidth="1"/>
+    <col min="46" max="47" width="10.9166666666667" customWidth="1"/>
+    <col min="48" max="48" width="11.4166666666667" customWidth="1"/>
+    <col min="49" max="49" width="15.9166666666667" customWidth="1"/>
+    <col min="50" max="50" width="13.8333333333333" customWidth="1"/>
+    <col min="51" max="51" width="15.8333333333333" customWidth="1"/>
+    <col min="52" max="52" width="11.0833333333333" customWidth="1"/>
+    <col min="53" max="56" width="5.08333333333333" customWidth="1"/>
+    <col min="57" max="57" width="9.83333333333333" customWidth="1"/>
+    <col min="58" max="58" width="8.75" customWidth="1"/>
+    <col min="59" max="59" width="11.3333333333333" customWidth="1"/>
+    <col min="60" max="60" width="9.83333333333333" customWidth="1"/>
+    <col min="61" max="61" width="9.25" customWidth="1"/>
+    <col min="62" max="62" width="11.8333333333333" customWidth="1"/>
+    <col min="63" max="63" width="9.41666666666667" customWidth="1"/>
+    <col min="64" max="64" width="13.5833333333333" customWidth="1"/>
+    <col min="65" max="65" width="6.66666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:66">
+    <row r="1" s="1" customFormat="1" spans="1:65">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="2"/>
+      <c r="H1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4" t="s">
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4" t="s">
+      <c r="T1" s="2"/>
+      <c r="U1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="U1" s="4"/>
-      <c r="V1" s="4" t="s">
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2"/>
+      <c r="AD1" s="2"/>
+      <c r="AE1" s="2"/>
+      <c r="AF1" s="2"/>
+      <c r="AG1" s="2"/>
+      <c r="AH1" s="2"/>
+      <c r="AI1" s="2"/>
+      <c r="AJ1" s="2"/>
+      <c r="AK1" s="2"/>
+      <c r="AL1" s="2"/>
+      <c r="AM1" s="2"/>
+      <c r="AN1" s="2"/>
+      <c r="AO1" s="2"/>
+      <c r="AP1" s="2"/>
+      <c r="AQ1" s="2"/>
+      <c r="AR1" s="2"/>
+      <c r="AS1" s="2"/>
+      <c r="AT1" s="2"/>
+      <c r="AU1" s="2"/>
+      <c r="AV1" s="2"/>
+      <c r="AW1" s="2"/>
+      <c r="AX1" s="2"/>
+      <c r="AY1" s="2"/>
+      <c r="AZ1" s="2"/>
+      <c r="BA1" s="2"/>
+      <c r="BB1" s="2"/>
+      <c r="BC1" s="2"/>
+      <c r="BD1" s="2"/>
+      <c r="BE1" s="2"/>
+      <c r="BF1" s="2"/>
+      <c r="BG1" s="2"/>
+      <c r="BH1" s="2"/>
+      <c r="BI1" s="2"/>
+      <c r="BJ1" s="2"/>
+      <c r="BK1" s="2"/>
+      <c r="BL1" s="2"/>
+      <c r="BM1" s="2"/>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:65">
+      <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="W1" s="4"/>
-      <c r="X1" s="4"/>
-      <c r="Y1" s="4"/>
-      <c r="Z1" s="4"/>
-      <c r="AA1" s="4"/>
-      <c r="AB1" s="4"/>
-      <c r="AC1" s="4"/>
-      <c r="AD1" s="4"/>
-      <c r="AE1" s="4"/>
-      <c r="AF1" s="4"/>
-      <c r="AG1" s="4"/>
-      <c r="AH1" s="4"/>
-      <c r="AI1" s="4"/>
-      <c r="AJ1" s="4"/>
-      <c r="AK1" s="4"/>
-      <c r="AL1" s="4"/>
-      <c r="AM1" s="4"/>
-      <c r="AN1" s="4"/>
-      <c r="AO1" s="4"/>
-      <c r="AP1" s="4"/>
-      <c r="AQ1" s="4"/>
-      <c r="AR1" s="4"/>
-      <c r="AS1" s="4"/>
-      <c r="AT1" s="4"/>
-      <c r="AU1" s="4"/>
-      <c r="AV1" s="4"/>
-      <c r="AW1" s="4"/>
-      <c r="AX1" s="4"/>
-      <c r="AY1" s="4"/>
-      <c r="AZ1" s="4"/>
-      <c r="BA1" s="4"/>
-      <c r="BB1" s="4"/>
-      <c r="BC1" s="4"/>
-      <c r="BD1" s="4"/>
-      <c r="BE1" s="4"/>
-      <c r="BF1" s="4"/>
-      <c r="BG1" s="4"/>
-      <c r="BH1" s="4"/>
-      <c r="BI1" s="4"/>
-      <c r="BJ1" s="4"/>
-      <c r="BK1" s="4"/>
-      <c r="BL1" s="4"/>
-      <c r="BM1" s="4"/>
-      <c r="BN1" s="4"/>
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2"/>
+      <c r="AA2" s="2"/>
+      <c r="AB2" s="2"/>
+      <c r="AC2" s="2"/>
+      <c r="AD2" s="2"/>
+      <c r="AE2" s="2"/>
+      <c r="AF2" s="2"/>
+      <c r="AG2" s="2"/>
+      <c r="AH2" s="2"/>
+      <c r="AI2" s="2"/>
+      <c r="AJ2" s="2"/>
+      <c r="AK2" s="2"/>
+      <c r="AL2" s="2"/>
+      <c r="AM2" s="2"/>
+      <c r="AN2" s="2"/>
+      <c r="AO2" s="2"/>
+      <c r="AP2" s="2"/>
+      <c r="AQ2" s="2"/>
+      <c r="AR2" s="2"/>
+      <c r="AS2" s="2"/>
+      <c r="AT2" s="2"/>
+      <c r="AU2" s="2"/>
+      <c r="AV2" s="2"/>
+      <c r="AW2" s="2"/>
+      <c r="AX2" s="2"/>
+      <c r="AY2" s="2"/>
+      <c r="AZ2" s="2"/>
+      <c r="BA2" s="2"/>
+      <c r="BB2" s="2"/>
+      <c r="BC2" s="2"/>
+      <c r="BD2" s="2"/>
+      <c r="BE2" s="2"/>
+      <c r="BF2" s="2"/>
+      <c r="BG2" s="2"/>
+      <c r="BH2" s="2"/>
+      <c r="BI2" s="2"/>
+      <c r="BJ2" s="2"/>
+      <c r="BK2" s="2"/>
+      <c r="BL2" s="2"/>
+      <c r="BM2" s="2"/>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:66">
-      <c r="A2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4" t="s">
+    <row r="3" s="1" customFormat="1" spans="1:1">
+      <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4"/>
-      <c r="T2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="U2" s="4"/>
-      <c r="V2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="W2" s="4"/>
-      <c r="X2" s="4"/>
-      <c r="Y2" s="4"/>
-      <c r="Z2" s="4"/>
-      <c r="AA2" s="4"/>
-      <c r="AB2" s="4"/>
-      <c r="AC2" s="4"/>
-      <c r="AD2" s="4"/>
-      <c r="AE2" s="4"/>
-      <c r="AF2" s="4"/>
-      <c r="AG2" s="4"/>
-      <c r="AH2" s="4"/>
-      <c r="AI2" s="4"/>
-      <c r="AJ2" s="4"/>
-      <c r="AK2" s="4"/>
-      <c r="AL2" s="4"/>
-      <c r="AM2" s="4"/>
-      <c r="AN2" s="4"/>
-      <c r="AO2" s="4"/>
-      <c r="AP2" s="4"/>
-      <c r="AQ2" s="4"/>
-      <c r="AR2" s="4"/>
-      <c r="AS2" s="4"/>
-      <c r="AT2" s="4"/>
-      <c r="AU2" s="4"/>
-      <c r="AV2" s="4"/>
-      <c r="AW2" s="4"/>
-      <c r="AX2" s="4"/>
-      <c r="AY2" s="4"/>
-      <c r="AZ2" s="4"/>
-      <c r="BA2" s="4"/>
-      <c r="BB2" s="4"/>
-      <c r="BC2" s="4"/>
-      <c r="BD2" s="4"/>
-      <c r="BE2" s="4"/>
-      <c r="BF2" s="4"/>
-      <c r="BG2" s="4"/>
-      <c r="BH2" s="4"/>
-      <c r="BI2" s="4"/>
-      <c r="BJ2" s="4"/>
-      <c r="BK2" s="4"/>
-      <c r="BL2" s="4"/>
-      <c r="BM2" s="4"/>
-      <c r="BN2" s="4"/>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:2">
-      <c r="A3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="3"/>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="1:66">
+    <row r="4" s="1" customFormat="1" spans="1:65">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="3"/>
+      <c r="C4" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="D4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="M4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="N4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="O4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O4" s="1" t="s">
+      <c r="P4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="P4" s="1" t="s">
+      <c r="Q4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="Q4" s="1" t="s">
+      <c r="R4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="R4" s="1" t="s">
+      <c r="S4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="S4" s="1" t="s">
+      <c r="T4" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="T4" s="1" t="s">
+      <c r="U4" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="U4" s="1" t="s">
+      <c r="V4" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V4" s="1" t="s">
+      <c r="W4" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="W4" s="1" t="s">
+      <c r="X4" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="X4" s="1" t="s">
+      <c r="Y4" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="Y4" s="1" t="s">
+      <c r="Z4" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="Z4" s="1" t="s">
+      <c r="AA4" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AA4" s="1" t="s">
+      <c r="AB4" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AB4" s="1" t="s">
+      <c r="AC4" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AC4" s="1" t="s">
+      <c r="AD4" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AD4" s="1" t="s">
+      <c r="AE4" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AE4" s="1" t="s">
+      <c r="AF4" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AF4" s="1" t="s">
+      <c r="AG4" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AG4" s="1" t="s">
+      <c r="AH4" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AH4" s="1" t="s">
+      <c r="AI4" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AI4" s="1" t="s">
+      <c r="AJ4" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AJ4" s="1" t="s">
+      <c r="AK4" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="AK4" s="1" t="s">
+      <c r="AL4" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="AL4" s="1" t="s">
+      <c r="AM4" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AM4" s="1" t="s">
+      <c r="AN4" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="AN4" s="1" t="s">
+      <c r="AO4" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="AO4" s="1" t="s">
+      <c r="AP4" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="AP4" s="1" t="s">
+      <c r="AQ4" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="AQ4" s="1" t="s">
+      <c r="AR4" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AR4" s="1" t="s">
+      <c r="AS4" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="AS4" s="1" t="s">
+      <c r="AT4" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="AT4" s="1" t="s">
+      <c r="AU4" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="AU4" s="1" t="s">
+      <c r="AV4" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="AV4" s="1" t="s">
+      <c r="AW4" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="AW4" s="1" t="s">
+      <c r="AX4" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="AX4" s="1" t="s">
+      <c r="AY4" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="AY4" s="1" t="s">
+      <c r="AZ4" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="AZ4" s="1" t="s">
+      <c r="BA4" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="BA4" s="1" t="s">
+      <c r="BB4" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="BB4" s="1" t="s">
+      <c r="BC4" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="BC4" s="1" t="s">
+      <c r="BD4" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="BD4" s="1" t="s">
+      <c r="BE4" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="BE4" s="1" t="s">
+      <c r="BF4" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="BF4" s="1" t="s">
+      <c r="BG4" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="BG4" s="1" t="s">
+      <c r="BH4" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="BH4" s="1" t="s">
+      <c r="BI4" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="BI4" s="1" t="s">
+      <c r="BJ4" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="BJ4" s="1" t="s">
+      <c r="BK4" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="BK4" s="1" t="s">
+      <c r="BL4" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="BL4" s="1" t="s">
+      <c r="BM4" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="BM4" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="BN4" s="1" t="s">
-        <v>80</v>
-      </c>
     </row>
-    <row r="5" s="1" customFormat="1" spans="1:2">
+    <row r="5" s="1" customFormat="1" spans="1:1">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="3"/>
     </row>
-    <row r="6" s="1" customFormat="1" spans="1:2">
+    <row r="6" s="1" customFormat="1" spans="1:1">
       <c r="A6" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="2:65">
+      <c r="B7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C7" t="s">
         <v>81</v>
       </c>
-      <c r="B6" s="3"/>
+      <c r="D7" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" t="s">
+        <v>84</v>
+      </c>
+      <c r="H7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="M7" t="s">
+        <v>26</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="R7" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="S7" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="T7" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="U7" t="s">
+        <v>34</v>
+      </c>
+      <c r="V7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="W7" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="X7" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y7" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z7" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA7" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB7" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC7" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD7" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE7" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF7" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG7" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH7" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI7" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AJ7" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK7" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AL7" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="AM7" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="AN7" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO7" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AP7" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="AQ7" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="AR7" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS7" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT7" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="AU7" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="AV7" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="AW7" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AX7" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="AY7" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="AZ7" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="BA7" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="BB7" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="BC7" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="BD7" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="BE7" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="BF7" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="BG7" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="BH7" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="BI7" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="BJ7" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="BK7" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="BL7" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="BM7" t="s">
+        <v>78</v>
+      </c>
     </row>
-    <row r="7" spans="2:66">
-      <c r="B7" s="2">
-        <v>10000</v>
-      </c>
-      <c r="C7" t="s">
-        <v>82</v>
-      </c>
-      <c r="D7" t="s">
-        <v>83</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="G7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H7" t="s">
-        <v>86</v>
-      </c>
-      <c r="I7" t="s">
-        <v>23</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="K7" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="L7" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="M7" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="N7" t="s">
-        <v>28</v>
-      </c>
-      <c r="O7" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="P7" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q7" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="R7" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="S7" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="T7" s="5" t="s">
+    <row r="8" spans="2:65">
+      <c r="B8" t="s">
         <v>92</v>
       </c>
-      <c r="U7" s="5" t="s">
+      <c r="C8" t="s">
         <v>93</v>
       </c>
-      <c r="V7" t="s">
-        <v>36</v>
-      </c>
-      <c r="W7" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="X7" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="Y7" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z7" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA7" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="AB7" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="AC7" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="AD7" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="AE7" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="AF7" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="AG7" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="AH7" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="AI7" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="AJ7" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="AK7" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="AL7" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="AM7" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="AN7" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="AO7" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="AP7" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="AQ7" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="AR7" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS7" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="AT7" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="AU7" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="AV7" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="AW7" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="AX7" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="AY7" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="AZ7" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="BA7" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="BB7" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="BC7" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="BD7" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="BE7" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="BF7" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="BG7" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="BH7" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="BI7" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="BJ7" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="BK7" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="BL7" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="BM7" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="BN7" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="8" spans="2:66">
-      <c r="B8" s="2">
-        <v>10001</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>94</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>95</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>96</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>97</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>98</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>99</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>100</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>101</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>102</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
         <v>103</v>
       </c>
-      <c r="M8" t="s">
+      <c r="U8" t="s">
         <v>104</v>
       </c>
-      <c r="N8" t="s">
+      <c r="V8" t="s">
         <v>105</v>
       </c>
-      <c r="V8" t="s">
+      <c r="W8" t="s">
         <v>106</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>107</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
         <v>108</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>109</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>110</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>111</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AC8" t="s">
         <v>112</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AD8" t="s">
         <v>113</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AE8" t="s">
         <v>114</v>
       </c>
-      <c r="AE8" t="s">
+      <c r="AF8" t="s">
         <v>115</v>
       </c>
-      <c r="AF8" t="s">
+      <c r="AG8" t="s">
         <v>116</v>
       </c>
-      <c r="AG8" t="s">
+      <c r="AH8" t="s">
         <v>117</v>
       </c>
-      <c r="AH8" t="s">
+      <c r="AI8" t="s">
         <v>118</v>
       </c>
-      <c r="AI8" t="s">
+      <c r="AJ8" t="s">
         <v>119</v>
       </c>
-      <c r="AJ8" t="s">
+      <c r="AK8" t="s">
         <v>120</v>
       </c>
-      <c r="AK8" t="s">
+      <c r="AL8" t="s">
         <v>121</v>
       </c>
-      <c r="AL8" t="s">
+      <c r="AM8" t="s">
         <v>122</v>
       </c>
-      <c r="AM8" t="s">
+      <c r="AN8" t="s">
         <v>123</v>
       </c>
-      <c r="AN8" t="s">
+      <c r="AO8" t="s">
         <v>124</v>
       </c>
-      <c r="AO8" t="s">
+      <c r="AP8" t="s">
         <v>125</v>
       </c>
-      <c r="AP8" t="s">
+      <c r="AQ8" t="s">
         <v>126</v>
       </c>
-      <c r="AQ8" t="s">
+      <c r="AR8" t="s">
         <v>127</v>
       </c>
-      <c r="AR8" t="s">
+      <c r="AS8" t="s">
         <v>128</v>
       </c>
-      <c r="AS8" t="s">
+      <c r="AT8" t="s">
         <v>129</v>
       </c>
-      <c r="AT8" t="s">
+      <c r="AU8" t="s">
         <v>130</v>
       </c>
-      <c r="AU8" t="s">
+      <c r="AV8" t="s">
         <v>131</v>
       </c>
-      <c r="AV8" t="s">
+      <c r="AW8" t="s">
         <v>132</v>
       </c>
-      <c r="AW8" t="s">
+      <c r="AX8" t="s">
         <v>133</v>
       </c>
-      <c r="AX8" t="s">
+      <c r="AY8" t="s">
         <v>134</v>
       </c>
-      <c r="AY8" t="s">
+      <c r="AZ8" t="s">
         <v>135</v>
       </c>
-      <c r="AZ8" t="s">
+      <c r="BA8" t="s">
         <v>136</v>
       </c>
-      <c r="BA8" t="s">
+      <c r="BB8" t="s">
         <v>137</v>
       </c>
-      <c r="BB8" t="s">
+      <c r="BC8" t="s">
         <v>138</v>
       </c>
-      <c r="BC8" t="s">
+      <c r="BD8" t="s">
         <v>139</v>
       </c>
-      <c r="BD8" t="s">
+      <c r="BE8" t="s">
         <v>140</v>
       </c>
-      <c r="BE8" t="s">
+      <c r="BF8" t="s">
         <v>141</v>
       </c>
-      <c r="BF8" t="s">
+      <c r="BG8" t="s">
         <v>142</v>
       </c>
-      <c r="BG8" t="s">
+      <c r="BH8" t="s">
         <v>143</v>
       </c>
-      <c r="BH8" t="s">
+      <c r="BI8" t="s">
         <v>144</v>
       </c>
-      <c r="BI8" t="s">
+      <c r="BJ8" t="s">
         <v>145</v>
       </c>
-      <c r="BJ8" t="s">
+      <c r="BK8" t="s">
         <v>146</v>
       </c>
-      <c r="BK8" t="s">
+      <c r="BL8" t="s">
         <v>147</v>
       </c>
-      <c r="BL8" t="s">
+      <c r="BM8" t="s">
         <v>148</v>
-      </c>
-      <c r="BM8" t="s">
-        <v>149</v>
-      </c>
-      <c r="BN8" t="s">
-        <v>150</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:N1"/>
-    <mergeCell ref="O1:S1"/>
-    <mergeCell ref="T1:U1"/>
-    <mergeCell ref="V1:BN1"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:N2"/>
-    <mergeCell ref="O2:S2"/>
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="V2:BN2"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:M1"/>
+    <mergeCell ref="N1:R1"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="U1:BM1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:M2"/>
+    <mergeCell ref="N2:R2"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="U2:BM2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
